--- a/data/glossary.xlsx
+++ b/data/glossary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/vscode/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3E99A7-78CA-4AE4-AC39-2B7BAFDC798E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1158108-8EE9-4E4F-BD7E-C7E09C5624E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glossary" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="DatiEsterni_3" localSheetId="3" hidden="1">motivations!$A$1:$B$5</definedName>
     <definedName name="DatiEsterni_4" localSheetId="2" hidden="1">languages!$A$1:$I$4</definedName>
     <definedName name="DatiEsterni_5" localSheetId="1" hidden="1">language_parameters!$A$1:$D$2</definedName>
-    <definedName name="DatiEsterni_6" localSheetId="0" hidden="1">glossary!$A$1:$B$5</definedName>
+    <definedName name="DatiEsterni_6" localSheetId="0" hidden="1">glossary!$A$1:$B$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -245,41 +245,156 @@
     <t>warning_orig</t>
   </si>
   <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>gender_description</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>article_description</t>
-  </si>
-  <si>
-    <t>possessive</t>
-  </si>
-  <si>
-    <t>possessive_description</t>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Case suffixes vs. postpositions</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Definite(ness)</t>
+  </si>
+  <si>
+    <t>Speech role</t>
+  </si>
+  <si>
+    <t>Possessive</t>
+  </si>
+  <si>
+    <t>Bare noun</t>
+  </si>
+  <si>
+    <t>Genitive</t>
+  </si>
+  <si>
+    <t>Noun modifier</t>
+  </si>
+  <si>
+    <t>Systematic number exponence</t>
+  </si>
+  <si>
+    <t>Bounded vs. unbounded reading</t>
+  </si>
+  <si>
+    <t>Phrase boundary</t>
+  </si>
+  <si>
+    <t>Phi-features</t>
+  </si>
+  <si>
+    <t>Determiner</t>
+  </si>
+  <si>
+    <t>Non-phrase-final</t>
+  </si>
+  <si>
+    <t>Classifier</t>
+  </si>
+  <si>
+    <t>Internal argument of the noun</t>
+  </si>
+  <si>
+    <t>External argument of the noun</t>
+  </si>
+  <si>
+    <t>Structured adjectives</t>
+  </si>
+  <si>
+    <t>Deictically neutral</t>
+  </si>
+  <si>
+    <t>Deictic relation</t>
+  </si>
+  <si>
+    <t>Pick a morphologically or lexically definable noun class, identified according to e.g. sex/animacy or any interpretable/uninterpretable property, except for Number, Person and Case. Let us all such classification ‘Gender’.</t>
+  </si>
+  <si>
+    <t>How to distinguish case suffixes from postpositions in postpositional languages: \n1. the case suffix occurs on a head noun or adjective before some other phrase-internal word (another adjective, a relative clause…), OR \n2. the case suffix occurs both on the head noun, and some other phrase-internal category (adjective, quantifier, demonstrative) agrees with it through a corresponding suffix, OR \n3. the case suffix is only on the head noun but it is more internal than other noun suffixes, such as e.g. of Number, possessed status, etc.</t>
+  </si>
+  <si>
+    <t>It is used to refer to a determiner that does not express any meaning other than (in)definiteness or just φ-features, and sometimes even less interpretable content (expletive articles). In some languages, articles (normally phonologically unstressed) occur as morphosyntactically free morphemes, in others they are bound morphemes affixed to the head noun (or an adjective).</t>
+  </si>
+  <si>
+    <t>The interpretation of the denotatum of a nominal phrase as being considered maximal in the shared domain of discourse, in many languages provided by designated articles, by demonstratives, possessives, or inherited even at a distance from certain Genitives. Definite arguments can be specific (i.e. assume the existence of a denotatum) or non-specific, and definiteness and specificity must by no means be confused.</t>
+  </si>
+  <si>
+    <t>It refers to the semantic interpretation of a nominal phrase as denoting the speaker(s), the hearer(s), both, or any individual other than the above. It is encoded as the so-called Person feature in many languages.</t>
+  </si>
+  <si>
+    <t>A personal pronoun (or reflexive) expressing a genitive argument of a head noun if and only if it has a form different from that used to realize non-pronominal genitive arguments.</t>
+  </si>
+  <si>
+    <t>A noun (or its extended maximal phrase) not introduced by any overt determiner in the canonical Determiner position nor with a determiner-like (atomizing) interpretation derived at a distance from other elements within the nominal phrase. Bare nouns in this sense may contain modifiers like arguments, adjectives or relative clauses, provided they do not contribute an atomizing interpretation.</t>
+  </si>
+  <si>
+    <t>Genitive (with capitalized initial as a noun, but spelt with lower-case initial when used as an adjective) refers to the abstract Case considered assigned to the direct arguments of a head noun (those normally expressing the possessor, agent and theme relation). It must not be confused with just morphological Case: direct adnominal arguments realized as adpositional phrases, with inflectional marking or with no marking at all will all be considered Genitives in this sense.</t>
+  </si>
+  <si>
+    <t>Any constituent within the maximal phrase of a head noun beyond the thematic arguments of the head noun and the elements occupying the position of determiners or performing an atomizing function at a distance from it.</t>
+  </si>
+  <si>
+    <t>1. Overt number alternations are productively realised on at least one entire class of nouns (defined on the basis of different morpho(phono)logical properties, e.g., gender/inflectional suffixes, derivational suffixes, root vowel ...)\n2. Suffixes are generalised to all/most nouns</t>
+  </si>
+  <si>
+    <t>A nominal argument will be said to have an unbounded reading when it is at the same time obligatorily indefinite, scopeless, and atelic. This reading is typically instantiated in European languages by bare plural and mass nouns and in many Turkic and Uralic languages by bare singulars. Nominal arguments introduced by an overt determiner normally have a bounded reading, which specifies the quantity of individuals denoted and atomizes the kind expressed by the head noun.</t>
+  </si>
+  <si>
+    <t>In principle the two (left- and right-ward) external edges of a nominal phrase. In practice the expression is used to refer to the one where the D position occurs in the language (initially in most languages, but clearly finally in such languages as Basque or Wolof). Notice that potentially floating quantifiers (such as those meaning ‘all’) and in certain languages even demonstratives may occur to the left of definite determiners without affecting the D-initial status of nominal phrases, i.e. the identification of a left boundary.</t>
+  </si>
+  <si>
+    <t>Any subset of Person, Number, Gender and Case specifications in a language.</t>
+  </si>
+  <si>
+    <t>A functional morpheme (in many languages instantiated by an article, a demonstrative, a possessive, or a quantifier) normally occurring in, or connected to, a position at the highest boundary of a nominal phrase, able to shift the latter phrase into an individual-denoting expression and often also to ensure an atomizing function (from an unbounded to a bounded interpretation of the nominal). In most languages there are at least some instances of phonologically null determiner positions, possibly interpreted at a distance from other elements within the nominal phrase.</t>
+  </si>
+  <si>
+    <t>Suffixed, at least in some cases, to a word which is not the last one of a DP.</t>
+  </si>
+  <si>
+    <t>A morpheme connecting a cardinal numeral to a non-plural head noun in a nominal phrase interpreted as count.</t>
+  </si>
+  <si>
+    <t>Argument of the noun equivalent to the internal argument of a (roughly) corresponding transitive verb in the active voice.</t>
+  </si>
+  <si>
+    <t>Argument of the noun equivalent to the external argument of a (roughly) corresponding transitive verb in the active voice.</t>
+  </si>
+  <si>
+    <t>Adnominal adjectives occur in most languages (also) with a distribution separate from that of modifiers such as relative clauses. In this case they respect a certain fixed order when they appear before the head noun, but occur either in the same or in reverse order if they superficially appear after the noun. These adjectives are called structured. In those languages/constructions in which adjectives can or must appear with the distribution of relative clauses they appear in freer order and will be considered reduced relative clauses.</t>
+  </si>
+  <si>
+    <t>Not encoding information about space, time, position, relationship to a discourse participant, including distance/relative social status.</t>
+  </si>
+  <si>
+    <t>Information about space, time, position, relationship to a discourse participant, including distance/relative social status.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,17 +417,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -487,11 +601,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}" name="glossary" displayName="glossary" ref="A1:B5" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}" name="glossary" displayName="glossary" ref="A1:B22" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B22" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6AD0E5FA-E6E1-4977-8554-0E3F5A8A2846}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{AD70B954-308E-4AE6-9F7C-C58B10D620F3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{6AD0E5FA-E6E1-4977-8554-0E3F5A8A2846}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{AD70B954-308E-4AE6-9F7C-C58B10D620F3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,10 +615,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2F1D94D5-DF83-412F-95D7-257D789455D6}" name="language_parameters" displayName="language_parameters" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{2F1D94D5-DF83-412F-95D7-257D789455D6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{14A2F1A0-D2BC-413C-A1BF-9CDDE9BAFD3C}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{66FB62D3-0D35-4E42-A49A-2ED327F03CDF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2E7860B0-19F5-4032-828D-DACA884636A2}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{1023FE2E-CC19-4106-852B-5222DF2A5CB2}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{14A2F1A0-D2BC-413C-A1BF-9CDDE9BAFD3C}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{66FB62D3-0D35-4E42-A49A-2ED327F03CDF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{2E7860B0-19F5-4032-828D-DACA884636A2}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{1023FE2E-CC19-4106-852B-5222DF2A5CB2}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -514,15 +628,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6F074D7-90B2-4EBA-B27B-29F5B9880FD4}" name="languages" displayName="languages" ref="A1:I4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I4" xr:uid="{F6F074D7-90B2-4EBA-B27B-29F5B9880FD4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{85D3913A-4C11-4A90-8B64-A1E899E80067}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{CF6E9D61-2619-43FB-9CD7-73D9B4D0C4AE}" uniqueName="2" name="name_full" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{85D3913A-4C11-4A90-8B64-A1E899E80067}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{CF6E9D61-2619-43FB-9CD7-73D9B4D0C4AE}" uniqueName="2" name="name_full" queryTableFieldId="2" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{4EF19EA2-9C2D-4DBC-9616-F0F90B70DEBC}" uniqueName="3" name="position" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{569493CA-2A58-44E9-B82E-C184B545F7F9}" uniqueName="4" name="grp" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{9CAEA168-496C-497C-8268-94C2C148C888}" uniqueName="5" name="isocode" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{5EE5FAA6-3FFC-48F1-A8A5-C3EAC80F1A2E}" uniqueName="6" name="glottocode" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{6267B2BF-D48B-4694-82A9-AE9B2EA9F8E7}" uniqueName="7" name="informant" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{D83AA30F-ECB3-498A-BCB5-48554E351CAD}" uniqueName="8" name="supervisor" queryTableFieldId="8" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{AE8AA8EE-0214-4139-B2AB-E1D7510F9A18}" uniqueName="9" name="assigned_user_email" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{569493CA-2A58-44E9-B82E-C184B545F7F9}" uniqueName="4" name="grp" queryTableFieldId="4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{9CAEA168-496C-497C-8268-94C2C148C888}" uniqueName="5" name="isocode" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{5EE5FAA6-3FFC-48F1-A8A5-C3EAC80F1A2E}" uniqueName="6" name="glottocode" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{6267B2BF-D48B-4694-82A9-AE9B2EA9F8E7}" uniqueName="7" name="informant" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{D83AA30F-ECB3-498A-BCB5-48554E351CAD}" uniqueName="8" name="supervisor" queryTableFieldId="8" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{AE8AA8EE-0214-4139-B2AB-E1D7510F9A18}" uniqueName="9" name="assigned_user_email" queryTableFieldId="9" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -532,8 +646,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}" name="motivations" displayName="motivations" ref="A1:B5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8CCA0FA6-DA67-418E-8B26-C9962310971F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{68C3EA7A-1D4F-4E74-8007-BD245D61523E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{8CCA0FA6-DA67-418E-8B26-C9962310971F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{68C3EA7A-1D4F-4E74-8007-BD245D61523E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -543,12 +657,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7C4FF96-1B6D-4CCA-9D5E-67C67057AEDF}" name="parameters" displayName="parameters" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G4" xr:uid="{C7C4FF96-1B6D-4CCA-9D5E-67C67057AEDF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0B6068A2-9922-466D-B9D5-A33D985D3336}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{1F6245EA-C647-4228-9207-2B729F2F0CB5}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{9424F12B-EAF0-4846-A8B1-CA748E224ED5}" uniqueName="3" name="short_description" queryTableFieldId="3" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{0B6068A2-9922-466D-B9D5-A33D985D3336}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1F6245EA-C647-4228-9207-2B729F2F0CB5}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9424F12B-EAF0-4846-A8B1-CA748E224ED5}" uniqueName="3" name="short_description" queryTableFieldId="3" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{943E732B-797E-4A4E-AE88-4AC36D5AA185}" uniqueName="4" name="position" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{C3AD8CCC-CD6B-4003-A8E2-AA344034E95B}" uniqueName="5" name="is_active" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{38B6776C-7702-42B7-B827-0C9448614A2E}" uniqueName="6" name="implicational_condition" queryTableFieldId="6" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{38B6776C-7702-42B7-B827-0C9448614A2E}" uniqueName="6" name="implicational_condition" queryTableFieldId="6" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{CFC3CDD1-EF4F-4F41-869A-AD1039F6927F}" uniqueName="7" name="warning_default" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -559,12 +673,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}" name="questions" displayName="questions" ref="A1:G5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{364735F5-D972-427D-BA27-3715C335102D}" uniqueName="7" name="is_stop_question" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -834,17 +948,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A27F97-E596-4BB0-99B8-D16553F1AC72}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="191" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -852,36 +968,172 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -898,15 +1150,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -920,17 +1172,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -948,20 +1200,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,90 +1242,90 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1091,13 +1343,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1105,35 +1357,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1151,18 +1403,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,14 +1437,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2">
@@ -1201,21 +1453,21 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3">
@@ -1224,21 +1476,21 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4">
@@ -1247,7 +1499,7 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4">
@@ -1268,18 +1520,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1325,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1408,7 +1660,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/glossary.xlsx
+++ b/data/glossary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/vscode/progetto_lingue_2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1158108-8EE9-4E4F-BD7E-C7E09C5624E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727B49D-CF55-5247-BD2C-C0E7E13973BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="DatiEsterni_3" localSheetId="3" hidden="1">motivations!$A$1:$B$5</definedName>
     <definedName name="DatiEsterni_4" localSheetId="2" hidden="1">languages!$A$1:$I$4</definedName>
     <definedName name="DatiEsterni_5" localSheetId="1" hidden="1">language_parameters!$A$1:$D$2</definedName>
-    <definedName name="DatiEsterni_6" localSheetId="0" hidden="1">glossary!$A$1:$B$22</definedName>
+    <definedName name="DatiEsterni_6" localSheetId="0" hidden="1">glossary!$A$1:$B$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -370,12 +370,18 @@
   <si>
     <t>Information about space, time, position, relationship to a discourse participant, including distance/relative social status.</t>
   </si>
+  <si>
+    <t>Extraposed position</t>
+  </si>
+  <si>
+    <t>INSERIRE DESCRIZIONE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,13 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -417,9 +416,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -601,8 +599,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}" name="glossary" displayName="glossary" ref="A1:B22" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B22" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}" name="glossary" displayName="glossary" ref="A1:B23" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B23" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6AD0E5FA-E6E1-4977-8554-0E3F5A8A2846}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{AD70B954-308E-4AE6-9F7C-C58B10D620F3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="24"/>
@@ -948,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A27F97-E596-4BB0-99B8-D16553F1AC72}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="191" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="191" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -977,7 +975,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
@@ -985,7 +983,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
@@ -993,7 +991,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
@@ -1001,63 +999,63 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B13" t="s">
@@ -1065,75 +1063,83 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/glossary.xlsx
+++ b/data/glossary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcolonghin/Desktop/POM Unimore/Database PCM_Hub/progetto_lingue_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727B49D-CF55-5247-BD2C-C0E7E13973BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283F9E08-E430-6A47-87D6-AD73F91EDAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="DatiEsterni_3" localSheetId="3" hidden="1">motivations!$A$1:$B$5</definedName>
     <definedName name="DatiEsterni_4" localSheetId="2" hidden="1">languages!$A$1:$I$4</definedName>
     <definedName name="DatiEsterni_5" localSheetId="1" hidden="1">language_parameters!$A$1:$D$2</definedName>
-    <definedName name="DatiEsterni_6" localSheetId="0" hidden="1">glossary!$A$1:$B$23</definedName>
+    <definedName name="DatiEsterni_6" localSheetId="0" hidden="1">glossary!$A$1:$B$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -314,9 +314,6 @@
     <t>How to distinguish case suffixes from postpositions in postpositional languages: \n1. the case suffix occurs on a head noun or adjective before some other phrase-internal word (another adjective, a relative clause…), OR \n2. the case suffix occurs both on the head noun, and some other phrase-internal category (adjective, quantifier, demonstrative) agrees with it through a corresponding suffix, OR \n3. the case suffix is only on the head noun but it is more internal than other noun suffixes, such as e.g. of Number, possessed status, etc.</t>
   </si>
   <si>
-    <t>It is used to refer to a determiner that does not express any meaning other than (in)definiteness or just φ-features, and sometimes even less interpretable content (expletive articles). In some languages, articles (normally phonologically unstressed) occur as morphosyntactically free morphemes, in others they are bound morphemes affixed to the head noun (or an adjective).</t>
-  </si>
-  <si>
     <t>The interpretation of the denotatum of a nominal phrase as being considered maximal in the shared domain of discourse, in many languages provided by designated articles, by demonstratives, possessives, or inherited even at a distance from certain Genitives. Definite arguments can be specific (i.e. assume the existence of a denotatum) or non-specific, and definiteness and specificity must by no means be confused.</t>
   </si>
   <si>
@@ -375,6 +372,23 @@
   </si>
   <si>
     <t>INSERIRE DESCRIZIONE</t>
+  </si>
+  <si>
+    <t>It is used to refer to a determiner that does not express any meaning other than (in)definiteness or just phi-features, and sometimes even less interpretable content (expletive articles). In some languages, articles (normally phonologically unstressed) occur as morphosyntactically free morphemes, in others they are bound morphemes affixed to the head noun (or an adjective).</t>
+  </si>
+  <si>
+    <t>Atomizing</t>
+  </si>
+  <si>
+    <t>The process shifting the interpretation of a nominal argument from an unbounded reading (a free variable, indirectly bound) to a bounded one (a variable bound by a specific determiner).</t>
+  </si>
+  <si>
+    <t>(morphological) Case</t>
+  </si>
+  <si>
+    <t>In nominal morphology it is important to have a demarcation criterion between inflectional (lato sensu, i.e. including agglutinative morphology) Case proper and pre-/post-positional words. Two criteria are conceivable, as a first approximation:
+a. many prepositional languages have Case suffixes, so that they are easily distinguished positionally from phrase-initial functional words like prepositions
+b. for postpositional languages, a demarcation criterion between Case-suffixes and postpositions is necessary, however. A distinction can be made if: 1) the suffix occurs on a head noun or adjective before some other phrase-internal word (another adjective, a relative clause...) or 2) the suffix occurs both on the head noun and some other phrase-internal category (adjective, quantifier, demonstrative) agrees with it through a corresponding suffix  or 3) the suffix is only on the head noun but, in the morphological structure, it is more word-internal than other noun suffixes, such as eg. of number, possessed status etc.</t>
   </si>
 </sst>
 </file>
@@ -416,17 +430,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -599,11 +639,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}" name="glossary" displayName="glossary" ref="A1:B23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B23" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}" name="glossary" displayName="glossary" ref="A1:B25" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B25" xr:uid="{F340FC1D-A39C-497B-A12A-203D6EEE8939}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6AD0E5FA-E6E1-4977-8554-0E3F5A8A2846}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{AD70B954-308E-4AE6-9F7C-C58B10D620F3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{6AD0E5FA-E6E1-4977-8554-0E3F5A8A2846}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{AD70B954-308E-4AE6-9F7C-C58B10D620F3}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,10 +653,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2F1D94D5-DF83-412F-95D7-257D789455D6}" name="language_parameters" displayName="language_parameters" ref="A1:D2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{2F1D94D5-DF83-412F-95D7-257D789455D6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{14A2F1A0-D2BC-413C-A1BF-9CDDE9BAFD3C}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{66FB62D3-0D35-4E42-A49A-2ED327F03CDF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{2E7860B0-19F5-4032-828D-DACA884636A2}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{1023FE2E-CC19-4106-852B-5222DF2A5CB2}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{14A2F1A0-D2BC-413C-A1BF-9CDDE9BAFD3C}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{66FB62D3-0D35-4E42-A49A-2ED327F03CDF}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{2E7860B0-19F5-4032-828D-DACA884636A2}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{1023FE2E-CC19-4106-852B-5222DF2A5CB2}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -626,15 +666,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F6F074D7-90B2-4EBA-B27B-29F5B9880FD4}" name="languages" displayName="languages" ref="A1:I4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I4" xr:uid="{F6F074D7-90B2-4EBA-B27B-29F5B9880FD4}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{85D3913A-4C11-4A90-8B64-A1E899E80067}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{CF6E9D61-2619-43FB-9CD7-73D9B4D0C4AE}" uniqueName="2" name="name_full" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{85D3913A-4C11-4A90-8B64-A1E899E80067}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{CF6E9D61-2619-43FB-9CD7-73D9B4D0C4AE}" uniqueName="2" name="name_full" queryTableFieldId="2" dataDxfId="22"/>
     <tableColumn id="3" xr3:uid="{4EF19EA2-9C2D-4DBC-9616-F0F90B70DEBC}" uniqueName="3" name="position" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{569493CA-2A58-44E9-B82E-C184B545F7F9}" uniqueName="4" name="grp" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9CAEA168-496C-497C-8268-94C2C148C888}" uniqueName="5" name="isocode" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{5EE5FAA6-3FFC-48F1-A8A5-C3EAC80F1A2E}" uniqueName="6" name="glottocode" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{6267B2BF-D48B-4694-82A9-AE9B2EA9F8E7}" uniqueName="7" name="informant" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{D83AA30F-ECB3-498A-BCB5-48554E351CAD}" uniqueName="8" name="supervisor" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{AE8AA8EE-0214-4139-B2AB-E1D7510F9A18}" uniqueName="9" name="assigned_user_email" queryTableFieldId="9" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{569493CA-2A58-44E9-B82E-C184B545F7F9}" uniqueName="4" name="grp" queryTableFieldId="4" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{9CAEA168-496C-497C-8268-94C2C148C888}" uniqueName="5" name="isocode" queryTableFieldId="5" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{5EE5FAA6-3FFC-48F1-A8A5-C3EAC80F1A2E}" uniqueName="6" name="glottocode" queryTableFieldId="6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{6267B2BF-D48B-4694-82A9-AE9B2EA9F8E7}" uniqueName="7" name="informant" queryTableFieldId="7" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{D83AA30F-ECB3-498A-BCB5-48554E351CAD}" uniqueName="8" name="supervisor" queryTableFieldId="8" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{AE8AA8EE-0214-4139-B2AB-E1D7510F9A18}" uniqueName="9" name="assigned_user_email" queryTableFieldId="9" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -644,8 +684,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}" name="motivations" displayName="motivations" ref="A1:B5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{AEDD5ED6-C713-4EDC-A06B-4DD57BF4AB1F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8CCA0FA6-DA67-418E-8B26-C9962310971F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{68C3EA7A-1D4F-4E74-8007-BD245D61523E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8CCA0FA6-DA67-418E-8B26-C9962310971F}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{68C3EA7A-1D4F-4E74-8007-BD245D61523E}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -655,12 +695,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7C4FF96-1B6D-4CCA-9D5E-67C67057AEDF}" name="parameters" displayName="parameters" ref="A1:G4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G4" xr:uid="{C7C4FF96-1B6D-4CCA-9D5E-67C67057AEDF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0B6068A2-9922-466D-B9D5-A33D985D3336}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1F6245EA-C647-4228-9207-2B729F2F0CB5}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9424F12B-EAF0-4846-A8B1-CA748E224ED5}" uniqueName="3" name="short_description" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{0B6068A2-9922-466D-B9D5-A33D985D3336}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1F6245EA-C647-4228-9207-2B729F2F0CB5}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9424F12B-EAF0-4846-A8B1-CA748E224ED5}" uniqueName="3" name="short_description" queryTableFieldId="3" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{943E732B-797E-4A4E-AE88-4AC36D5AA185}" uniqueName="4" name="position" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{C3AD8CCC-CD6B-4003-A8E2-AA344034E95B}" uniqueName="5" name="is_active" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{38B6776C-7702-42B7-B827-0C9448614A2E}" uniqueName="6" name="implicational_condition" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{38B6776C-7702-42B7-B827-0C9448614A2E}" uniqueName="6" name="implicational_condition" queryTableFieldId="6" dataDxfId="10"/>
     <tableColumn id="7" xr3:uid="{CFC3CDD1-EF4F-4F41-869A-AD1039F6927F}" uniqueName="7" name="warning_default" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -671,12 +711,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}" name="questions" displayName="questions" ref="A1:G5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:G5" xr:uid="{9E6C3B46-30C3-4A7B-AB14-3BC2994EBC03}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{67101A1B-8988-4C10-B195-721AF4A4DDFE}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{DAC026A4-4E08-45C5-B847-62B6EE459D89}" uniqueName="2" name="parameter_id" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D9BAD92C-B225-46BB-B2D0-72E22D71473D}" uniqueName="3" name="text" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2D445D34-3D4E-46E5-A031-AEF21A353ACC}" uniqueName="4" name="example_yes" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1A723189-B285-4202-A439-2A700C433930}" uniqueName="5" name="instruction" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{346B1415-F909-425C-8E39-5140B8FB4AE1}" uniqueName="6" name="template_type" queryTableFieldId="6" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{364735F5-D972-427D-BA27-3715C335102D}" uniqueName="7" name="is_stop_question" queryTableFieldId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -946,200 +986,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A27F97-E596-4BB0-99B8-D16553F1AC72}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="191" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:2" ht="43" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>103</v>
+    </row>
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
